--- a/Hnqn.CrmSys/Hnqn.CrmSys/File/导出.xlsx
+++ b/Hnqn.CrmSys/Hnqn.CrmSys/File/导出.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="222">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
@@ -663,6 +663,21 @@
   </si>
   <si>
     <t xml:space="preserve">工业大学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朱程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-13 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">姜子横</t>
   </si>
 </sst>
 </file>
@@ -2956,6 +2971,94 @@
         <v>66</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>219</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" t="s">
+        <v>170</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s">
+        <v>166</v>
+      </c>
+      <c r="J53" t="s">
+        <v>45</v>
+      </c>
+      <c r="K53" t="s">
+        <v>192</v>
+      </c>
+      <c r="L53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N53" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
